--- a/data/trans_orig/IP05A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP05A05-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{866FA8C5-ABFD-47C6-9D11-1BF5A2D1C60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{088B50F0-D711-40FB-8E51-A9199917DA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8CA779F9-9348-408D-B631-8615AEBE1F3B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E566BCBC-8E27-473C-BF0A-CF296BC2371C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="529">
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -77,1246 +77,1228 @@
     <t>33,7%</t>
   </si>
   <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
   </si>
   <si>
     <t>36,29%</t>
   </si>
   <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
   </si>
   <si>
     <t>41,61%</t>
   </si>
   <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
   </si>
   <si>
     <t>28,46%</t>
   </si>
   <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2015 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
     <t>24,31%</t>
   </si>
   <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
   </si>
   <si>
     <t>37,82%</t>
   </si>
   <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
   </si>
   <si>
     <t>36,75%</t>
   </si>
   <si>
-    <t>30,91%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
   </si>
   <si>
     <t>43,2%</t>
   </si>
   <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>15,5%</t>
   </si>
   <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>8,01%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
   </si>
   <si>
     <t>9,6%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
   </si>
   <si>
     <t>8,8%</t>
@@ -1325,316 +1307,325 @@
     <t>5,29%</t>
   </si>
   <si>
-    <t>13,44%</t>
+    <t>13,21%</t>
   </si>
   <si>
     <t>75,85%</t>
   </si>
   <si>
-    <t>69,75%</t>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>80,49%</t>
   </si>
   <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
   </si>
   <si>
     <t>9,51%</t>
   </si>
   <si>
-    <t>6,64%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
   </si>
   <si>
     <t>13,14%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
   </si>
   <si>
     <t>78,91%</t>
   </si>
   <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
   </si>
   <si>
     <t>77,56%</t>
   </si>
   <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
   </si>
   <si>
     <t>78,27%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
   </si>
   <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548875EC-4351-43A7-9D4A-303CDC5A5F0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DE67F1-737B-4900-BDA1-1B93EA906B80}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2806,10 +2797,10 @@
         <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>180</v>
@@ -2818,13 +2809,13 @@
         <v>120438</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,13 +2830,13 @@
         <v>108802</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -2854,13 +2845,13 @@
         <v>95619</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>303</v>
@@ -2869,13 +2860,13 @@
         <v>204421</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,13 +2881,13 @@
         <v>36532</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
@@ -2905,13 +2896,13 @@
         <v>38074</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>112</v>
@@ -2920,13 +2911,13 @@
         <v>74607</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +2985,13 @@
         <v>219616</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>299</v>
@@ -3009,13 +3000,13 @@
         <v>202641</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>630</v>
@@ -3024,13 +3015,13 @@
         <v>422257</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,13 +3036,13 @@
         <v>360710</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H21" s="7">
         <v>518</v>
@@ -3060,13 +3051,13 @@
         <v>345105</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>1057</v>
@@ -3075,13 +3066,13 @@
         <v>705815</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3096,13 +3087,13 @@
         <v>140349</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>198</v>
@@ -3111,13 +3102,13 @@
         <v>131647</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>411</v>
@@ -3126,13 +3117,13 @@
         <v>271996</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,7 +3179,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3208,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D83C08B-A0B8-436A-A91C-2F9EA55DACF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD49C255-5575-4F91-AF75-3C82B8846459}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3225,7 +3216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3332,13 +3323,13 @@
         <v>47835</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>70</v>
@@ -3347,13 +3338,13 @@
         <v>45844</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M4" s="7">
         <v>139</v>
@@ -3362,13 +3353,13 @@
         <v>93679</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3374,13 @@
         <v>62584</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -3398,13 +3389,13 @@
         <v>63559</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>181</v>
@@ -3413,13 +3404,13 @@
         <v>126143</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3425,13 @@
         <v>35571</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H6" s="7">
         <v>55</v>
@@ -3449,13 +3440,13 @@
         <v>37358</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>106</v>
@@ -3464,13 +3455,13 @@
         <v>72929</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3538,13 +3529,13 @@
         <v>83041</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>119</v>
@@ -3553,13 +3544,13 @@
         <v>80266</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>235</v>
@@ -3568,13 +3559,13 @@
         <v>163307</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3580,13 @@
         <v>121566</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H9" s="7">
         <v>145</v>
@@ -3604,13 +3595,13 @@
         <v>101487</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M9" s="7">
         <v>315</v>
@@ -3619,13 +3610,13 @@
         <v>223052</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3631,13 @@
         <v>64384</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -3655,13 +3646,13 @@
         <v>54497</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>164</v>
@@ -3670,13 +3661,13 @@
         <v>118882</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3735,13 @@
         <v>49923</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H12" s="7">
         <v>76</v>
@@ -3759,13 +3750,13 @@
         <v>53623</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M12" s="7">
         <v>149</v>
@@ -3774,13 +3765,13 @@
         <v>103546</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,10 +3789,10 @@
         <v>51</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>87</v>
@@ -3810,13 +3801,13 @@
         <v>61333</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>201</v>
@@ -3825,13 +3816,13 @@
         <v>141063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,10 +3840,10 @@
         <v>63</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -3861,13 +3852,13 @@
         <v>41297</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>100</v>
@@ -3876,13 +3867,13 @@
         <v>70215</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,13 +3941,13 @@
         <v>48174</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -3965,13 +3956,13 @@
         <v>56746</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
@@ -3980,13 +3971,13 @@
         <v>104920</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,13 +3992,13 @@
         <v>85188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>103</v>
@@ -4016,13 +4007,13 @@
         <v>74035</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M17" s="7">
         <v>227</v>
@@ -4031,13 +4022,13 @@
         <v>159223</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>241</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4043,13 @@
         <v>46593</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -4067,13 +4058,13 @@
         <v>39788</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M18" s="7">
         <v>123</v>
@@ -4082,13 +4073,13 @@
         <v>86381</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>252</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,10 +4150,10 @@
         <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
         <v>349</v>
@@ -4171,13 +4162,13 @@
         <v>236479</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>680</v>
@@ -4186,13 +4177,13 @@
         <v>465452</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4198,13 @@
         <v>349068</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H21" s="7">
         <v>429</v>
@@ -4222,13 +4213,13 @@
         <v>300414</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M21" s="7">
         <v>924</v>
@@ -4237,13 +4228,13 @@
         <v>649482</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4249,13 @@
         <v>175467</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>245</v>
@@ -4273,13 +4264,13 @@
         <v>172940</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>493</v>
@@ -4288,13 +4279,13 @@
         <v>348407</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,7 +4341,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4370,7 +4361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821DAA57-8F22-4000-87D3-00592911C6B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC505D9-158B-4064-B0B4-CED55A07C4DA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4387,7 +4378,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4494,13 +4485,13 @@
         <v>40775</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H4" s="7">
         <v>98</v>
@@ -4509,13 +4500,13 @@
         <v>61410</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M4" s="7">
         <v>158</v>
@@ -4524,13 +4515,13 @@
         <v>102184</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4536,13 @@
         <v>54792</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H5" s="7">
         <v>74</v>
@@ -4560,13 +4551,13 @@
         <v>47152</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M5" s="7">
         <v>158</v>
@@ -4575,13 +4566,13 @@
         <v>101943</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4587,13 @@
         <v>28597</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H6" s="7">
         <v>38</v>
@@ -4611,13 +4602,13 @@
         <v>22549</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>299</v>
+        <v>62</v>
       </c>
       <c r="M6" s="7">
         <v>81</v>
@@ -4626,13 +4617,13 @@
         <v>51146</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4691,13 @@
         <v>100308</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H8" s="7">
         <v>125</v>
@@ -4715,13 +4706,13 @@
         <v>78857</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M8" s="7">
         <v>271</v>
@@ -4730,13 +4721,13 @@
         <v>179165</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4742,13 @@
         <v>103734</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>311</v>
       </c>
       <c r="H9" s="7">
         <v>130</v>
@@ -4766,13 +4757,13 @@
         <v>82718</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="M9" s="7">
         <v>283</v>
@@ -4781,13 +4772,13 @@
         <v>186452</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4793,13 @@
         <v>54018</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>317</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H10" s="7">
         <v>77</v>
@@ -4817,13 +4808,13 @@
         <v>48942</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -4832,13 +4823,13 @@
         <v>102961</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,13 +4897,13 @@
         <v>68325</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H12" s="7">
         <v>98</v>
@@ -4921,13 +4912,13 @@
         <v>66733</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M12" s="7">
         <v>193</v>
@@ -4936,13 +4927,13 @@
         <v>135059</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>334</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,13 +4948,13 @@
         <v>71286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>338</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>110</v>
@@ -4972,13 +4963,13 @@
         <v>78302</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>208</v>
@@ -4987,13 +4978,13 @@
         <v>149588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +4999,13 @@
         <v>48283</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>249</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
         <v>63</v>
@@ -5023,13 +5014,13 @@
         <v>43140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -5038,13 +5029,13 @@
         <v>91423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5103,13 @@
         <v>65820</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
         <v>93</v>
@@ -5127,13 +5118,13 @@
         <v>63250</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -5142,13 +5133,13 @@
         <v>129071</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>361</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5154,13 @@
         <v>62179</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>364</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
@@ -5178,13 +5169,13 @@
         <v>73821</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
         <v>186</v>
@@ -5193,13 +5184,13 @@
         <v>136000</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5205,13 @@
         <v>46049</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>371</v>
+        <v>152</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H18" s="7">
         <v>50</v>
@@ -5229,13 +5220,13 @@
         <v>35061</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>369</v>
       </c>
       <c r="M18" s="7">
         <v>113</v>
@@ -5244,13 +5235,13 @@
         <v>81110</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,13 +5309,13 @@
         <v>275228</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>374</v>
       </c>
       <c r="H20" s="7">
         <v>414</v>
@@ -5333,13 +5324,13 @@
         <v>270250</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M20" s="7">
         <v>803</v>
@@ -5348,13 +5339,13 @@
         <v>545478</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,13 +5360,13 @@
         <v>291990</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="H21" s="7">
         <v>416</v>
@@ -5384,13 +5375,13 @@
         <v>281994</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M21" s="7">
         <v>835</v>
@@ -5399,13 +5390,13 @@
         <v>573984</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>393</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5420,13 +5411,13 @@
         <v>176948</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>396</v>
+        <v>18</v>
       </c>
       <c r="H22" s="7">
         <v>228</v>
@@ -5435,13 +5426,13 @@
         <v>149692</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>66</v>
+        <v>391</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M22" s="7">
         <v>484</v>
@@ -5450,13 +5441,13 @@
         <v>326640</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,7 +5503,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5532,7 +5523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346F5FCB-502D-4F2F-8DE9-0B4483B1164A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAD6E67-0A51-4124-8D9B-63F2030BA3F4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5549,7 +5540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5656,13 +5647,13 @@
         <v>44114</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H4" s="7">
         <v>86</v>
@@ -5671,13 +5662,13 @@
         <v>43605</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M4" s="7">
         <v>176</v>
@@ -5686,13 +5677,13 @@
         <v>87719</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5698,13 @@
         <v>9703</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -5722,13 +5713,13 @@
         <v>8255</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>417</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -5737,13 +5728,13 @@
         <v>17958</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5749,13 @@
         <v>4686</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -5773,13 +5764,13 @@
         <v>5508</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -5788,13 +5779,13 @@
         <v>10194</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5853,13 @@
         <v>132970</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="H8" s="7">
         <v>206</v>
@@ -5877,13 +5868,13 @@
         <v>124251</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="M8" s="7">
         <v>413</v>
@@ -5892,13 +5883,13 @@
         <v>257220</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5904,13 @@
         <v>25803</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -5928,13 +5919,13 @@
         <v>14270</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
@@ -5943,13 +5934,13 @@
         <v>40072</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5955,13 @@
         <v>16527</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
@@ -5979,13 +5970,13 @@
         <v>19073</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -5994,13 +5985,13 @@
         <v>35599</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6059,13 @@
         <v>151762</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H12" s="7">
         <v>185</v>
@@ -6083,13 +6074,13 @@
         <v>138594</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="M12" s="7">
         <v>372</v>
@@ -6098,13 +6089,13 @@
         <v>290356</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6110,13 @@
         <v>32827</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -6134,13 +6125,13 @@
         <v>27991</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -6149,13 +6140,13 @@
         <v>60819</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6161,13 @@
         <v>16988</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -6185,13 +6176,13 @@
         <v>10360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
@@ -6200,13 +6191,13 @@
         <v>27348</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6265,13 @@
         <v>242675</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H16" s="7">
         <v>276</v>
@@ -6289,13 +6280,13 @@
         <v>199660</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M16" s="7">
         <v>557</v>
@@ -6304,13 +6295,13 @@
         <v>442335</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6316,13 @@
         <v>27466</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -6340,13 +6331,13 @@
         <v>44721</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
@@ -6358,10 +6349,10 @@
         <v>491</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6367,13 @@
         <v>18757</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -6391,13 +6382,13 @@
         <v>16252</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
@@ -6406,13 +6397,13 @@
         <v>35009</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6471,13 @@
         <v>571520</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="H20" s="7">
         <v>753</v>
@@ -6495,13 +6486,13 @@
         <v>506110</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="M20" s="7">
         <v>1518</v>
@@ -6510,13 +6501,13 @@
         <v>1077630</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,13 +6522,13 @@
         <v>95799</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H21" s="7">
         <v>116</v>
@@ -6546,13 +6537,13 @@
         <v>95237</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M21" s="7">
         <v>247</v>
@@ -6561,13 +6552,13 @@
         <v>191036</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,13 +6573,13 @@
         <v>56957</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H22" s="7">
         <v>73</v>
@@ -6597,13 +6588,13 @@
         <v>51193</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M22" s="7">
         <v>152</v>
@@ -6612,13 +6603,13 @@
         <v>108150</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,7 +6665,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP05A05-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP05A05-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{088B50F0-D711-40FB-8E51-A9199917DA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E40B697-5702-4854-99D8-603F897DD933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E566BCBC-8E27-473C-BF0A-CF296BC2371C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2B25FC9E-5F3C-482B-8418-3D340BFDDCA0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="542">
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,1558 +74,1597 @@
     <t>Nada</t>
   </si>
   <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
     <t>33,7%</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
   </si>
   <si>
     <t>30,21%</t>
   </si>
   <si>
-    <t>26,32%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>54,97%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>52,65%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
   </si>
   <si>
     <t>35,91%</t>
   </si>
   <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>32,77%</t>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
   </si>
   <si>
     <t>26,46%</t>
   </si>
   <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>27,28%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
   </si>
   <si>
     <t>36,98%</t>
   </si>
   <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
   </si>
   <si>
     <t>37,72%</t>
   </si>
   <si>
-    <t>35,6%</t>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
   </si>
   <si>
     <t>39,24%</t>
   </si>
   <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
   </si>
   <si>
     <t>39,69%</t>
   </si>
   <si>
-    <t>37,62%</t>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
   </si>
   <si>
     <t>23,78%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
   </si>
   <si>
     <t>22,59%</t>
   </si>
   <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
   </si>
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
   </si>
   <si>
     <t>16,59%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
 </sst>
 </file>
@@ -2037,7 +2076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DE67F1-737B-4900-BDA1-1B93EA906B80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477B6884-6EB9-4D7F-B36C-3CD1E77E7C7A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2155,10 +2194,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7">
-        <v>40902</v>
+        <v>27695</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2170,10 +2209,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="I4" s="7">
-        <v>27695</v>
+        <v>40902</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2206,10 +2245,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="7">
-        <v>56492</v>
+        <v>56105</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2221,10 +2260,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="7">
-        <v>56105</v>
+        <v>56492</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2257,10 +2296,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="7">
-        <v>23985</v>
+        <v>21923</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2272,10 +2311,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I6" s="7">
-        <v>21923</v>
+        <v>23985</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2308,25 +2347,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>161</v>
+      </c>
+      <c r="D7" s="7">
+        <v>105723</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>182</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>121380</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>161</v>
-      </c>
-      <c r="I7" s="7">
-        <v>105723</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2361,10 +2400,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D8" s="7">
-        <v>76706</v>
+        <v>80231</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2376,10 +2415,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I8" s="7">
-        <v>80231</v>
+        <v>76706</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -2412,10 +2451,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D9" s="7">
-        <v>126921</v>
+        <v>126348</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2427,10 +2466,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I9" s="7">
-        <v>126348</v>
+        <v>126921</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2463,10 +2502,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7">
-        <v>48785</v>
+        <v>46099</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2478,10 +2517,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I10" s="7">
-        <v>46099</v>
+        <v>48785</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2514,25 +2553,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>378</v>
+      </c>
+      <c r="D11" s="7">
+        <v>252678</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>380</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>252411</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>378</v>
-      </c>
-      <c r="I11" s="7">
-        <v>252678</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -2567,10 +2606,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7">
-        <v>41974</v>
+        <v>34311</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2582,10 +2621,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I12" s="7">
-        <v>34311</v>
+        <v>41974</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2621,7 +2660,7 @@
         <v>102</v>
       </c>
       <c r="D13" s="7">
-        <v>68495</v>
+        <v>67033</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2636,7 +2675,7 @@
         <v>102</v>
       </c>
       <c r="I13" s="7">
-        <v>67033</v>
+        <v>68495</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -2669,10 +2708,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>31046</v>
+        <v>25550</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -2684,10 +2723,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>25550</v>
+        <v>31046</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -2720,25 +2759,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>190</v>
+      </c>
+      <c r="D15" s="7">
+        <v>126894</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>212</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141515</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>190</v>
-      </c>
-      <c r="I15" s="7">
-        <v>126894</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -2773,10 +2812,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7">
-        <v>60034</v>
+        <v>60404</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
@@ -2788,19 +2827,19 @@
         <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I16" s="7">
-        <v>60404</v>
+        <v>60034</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>180</v>
@@ -2809,13 +2848,13 @@
         <v>120438</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,34 +2863,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>141</v>
+      </c>
+      <c r="D17" s="7">
+        <v>95619</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="7">
         <v>162</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>108802</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="7">
-        <v>141</v>
-      </c>
-      <c r="I17" s="7">
-        <v>95619</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>303</v>
@@ -2860,13 +2899,13 @@
         <v>204421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2878,31 +2917,31 @@
         <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>36532</v>
+        <v>38074</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
       </c>
       <c r="I18" s="7">
-        <v>38074</v>
+        <v>36532</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>112</v>
@@ -2911,13 +2950,13 @@
         <v>74607</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,25 +2965,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>286</v>
+      </c>
+      <c r="D19" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>309</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>205369</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>286</v>
-      </c>
-      <c r="I19" s="7">
-        <v>194097</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -2979,34 +3018,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>299</v>
+      </c>
+      <c r="D20" s="7">
+        <v>202641</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="7">
         <v>331</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>219616</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" s="7">
-        <v>299</v>
-      </c>
-      <c r="I20" s="7">
-        <v>202641</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>630</v>
@@ -3015,13 +3054,13 @@
         <v>422257</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,34 +3069,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>518</v>
+      </c>
+      <c r="D21" s="7">
+        <v>345105</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="7">
         <v>539</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>360710</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="7">
-        <v>518</v>
-      </c>
-      <c r="I21" s="7">
-        <v>345105</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>1057</v>
@@ -3066,13 +3105,13 @@
         <v>705815</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,34 +3120,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>198</v>
+      </c>
+      <c r="D22" s="7">
+        <v>131647</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="7">
         <v>213</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>140349</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H22" s="7">
-        <v>198</v>
-      </c>
-      <c r="I22" s="7">
-        <v>131647</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M22" s="7">
         <v>411</v>
@@ -3117,13 +3156,13 @@
         <v>271996</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,25 +3171,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1015</v>
+      </c>
+      <c r="D23" s="7">
+        <v>679393</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1083</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>720675</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I23" s="7">
-        <v>679393</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3179,7 +3218,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +3238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD49C255-5575-4F91-AF75-3C82B8846459}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEB2A07-9091-43DD-B819-3E7DEEF19B60}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3216,7 +3255,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3317,34 +3356,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>70</v>
+      </c>
+      <c r="D4" s="7">
+        <v>45844</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="7">
         <v>69</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>47835</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" s="7">
-        <v>70</v>
-      </c>
-      <c r="I4" s="7">
-        <v>45844</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>139</v>
@@ -3353,13 +3392,13 @@
         <v>93679</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,34 +3407,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>94</v>
+      </c>
+      <c r="D5" s="7">
+        <v>63559</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="7">
         <v>87</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>62584</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" s="7">
-        <v>94</v>
-      </c>
-      <c r="I5" s="7">
-        <v>63559</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>181</v>
@@ -3404,13 +3443,13 @@
         <v>126143</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,34 +3458,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7">
+        <v>37358</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="7">
         <v>51</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>35571</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H6" s="7">
-        <v>55</v>
-      </c>
-      <c r="I6" s="7">
-        <v>37358</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>106</v>
@@ -3455,13 +3494,13 @@
         <v>72929</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,25 +3509,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>219</v>
+      </c>
+      <c r="D7" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>207</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>145990</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>219</v>
-      </c>
-      <c r="I7" s="7">
-        <v>146761</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3523,34 +3562,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>119</v>
+      </c>
+      <c r="D8" s="7">
+        <v>80266</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="7">
         <v>116</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>83041</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H8" s="7">
-        <v>119</v>
-      </c>
-      <c r="I8" s="7">
-        <v>80266</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>235</v>
@@ -3559,13 +3598,13 @@
         <v>163307</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,34 +3613,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>145</v>
+      </c>
+      <c r="D9" s="7">
+        <v>101487</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H9" s="7">
         <v>170</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>121566</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="7">
-        <v>145</v>
-      </c>
-      <c r="I9" s="7">
-        <v>101487</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M9" s="7">
         <v>315</v>
@@ -3610,13 +3649,13 @@
         <v>223052</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,34 +3664,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>76</v>
+      </c>
+      <c r="D10" s="7">
+        <v>54497</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="7">
         <v>88</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>64384</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H10" s="7">
-        <v>76</v>
-      </c>
-      <c r="I10" s="7">
-        <v>54497</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>164</v>
@@ -3661,13 +3700,13 @@
         <v>118882</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,25 +3715,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>340</v>
+      </c>
+      <c r="D11" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>374</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>268991</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>340</v>
-      </c>
-      <c r="I11" s="7">
-        <v>236250</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3729,34 +3768,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>76</v>
+      </c>
+      <c r="D12" s="7">
+        <v>53623</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="7">
         <v>73</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>49923</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H12" s="7">
-        <v>76</v>
-      </c>
-      <c r="I12" s="7">
-        <v>53623</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>149</v>
@@ -3765,13 +3804,13 @@
         <v>103546</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,34 +3819,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>87</v>
+      </c>
+      <c r="D13" s="7">
+        <v>61333</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="7">
         <v>114</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>79731</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H13" s="7">
-        <v>87</v>
-      </c>
-      <c r="I13" s="7">
-        <v>61333</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M13" s="7">
         <v>201</v>
@@ -3816,13 +3855,13 @@
         <v>141063</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,34 +3870,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>59</v>
+      </c>
+      <c r="D14" s="7">
+        <v>41297</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H14" s="7">
         <v>41</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>28918</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H14" s="7">
-        <v>59</v>
-      </c>
-      <c r="I14" s="7">
-        <v>41297</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>60</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>100</v>
@@ -3867,13 +3906,13 @@
         <v>70215</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,25 +3921,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>222</v>
+      </c>
+      <c r="D15" s="7">
+        <v>156253</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>228</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>158571</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>222</v>
-      </c>
-      <c r="I15" s="7">
-        <v>156253</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3935,34 +3974,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>84</v>
+      </c>
+      <c r="D16" s="7">
+        <v>56746</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H16" s="7">
         <v>73</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>48174</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H16" s="7">
-        <v>84</v>
-      </c>
-      <c r="I16" s="7">
-        <v>56746</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
@@ -3971,13 +4010,13 @@
         <v>104920</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,34 +4025,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>103</v>
+      </c>
+      <c r="D17" s="7">
+        <v>74035</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H17" s="7">
         <v>124</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>85188</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H17" s="7">
-        <v>103</v>
-      </c>
-      <c r="I17" s="7">
-        <v>74035</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>227</v>
@@ -4022,13 +4061,13 @@
         <v>159223</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,34 +4076,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>55</v>
+      </c>
+      <c r="D18" s="7">
+        <v>39788</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H18" s="7">
         <v>68</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>46593</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H18" s="7">
-        <v>55</v>
-      </c>
-      <c r="I18" s="7">
-        <v>39788</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="M18" s="7">
         <v>123</v>
@@ -4073,13 +4112,13 @@
         <v>86381</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>255</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,25 +4127,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>242</v>
+      </c>
+      <c r="D19" s="7">
+        <v>170569</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>265</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>179955</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>242</v>
-      </c>
-      <c r="I19" s="7">
-        <v>170569</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4141,34 +4180,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>349</v>
+      </c>
+      <c r="D20" s="7">
+        <v>236479</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H20" s="7">
         <v>331</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>228972</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H20" s="7">
-        <v>349</v>
-      </c>
-      <c r="I20" s="7">
-        <v>236479</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M20" s="7">
         <v>680</v>
@@ -4177,13 +4216,13 @@
         <v>465452</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,34 +4231,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>429</v>
+      </c>
+      <c r="D21" s="7">
+        <v>300414</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H21" s="7">
         <v>495</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>349068</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H21" s="7">
-        <v>429</v>
-      </c>
-      <c r="I21" s="7">
-        <v>300414</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M21" s="7">
         <v>924</v>
@@ -4228,13 +4267,13 @@
         <v>649482</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,34 +4282,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>245</v>
+      </c>
+      <c r="D22" s="7">
+        <v>172940</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H22" s="7">
         <v>248</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>175467</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H22" s="7">
-        <v>245</v>
-      </c>
-      <c r="I22" s="7">
-        <v>172940</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>493</v>
@@ -4279,13 +4318,13 @@
         <v>348407</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,25 +4333,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1023</v>
+      </c>
+      <c r="D23" s="7">
+        <v>709833</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1074</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>753507</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1023</v>
-      </c>
-      <c r="I23" s="7">
-        <v>709833</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4341,7 +4380,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4361,7 +4400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC505D9-158B-4064-B0B4-CED55A07C4DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77D638C-4BCB-402F-9304-5FCCC205AE76}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4378,7 +4417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4479,34 +4518,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>98</v>
+      </c>
+      <c r="D4" s="7">
+        <v>61410</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H4" s="7">
         <v>60</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>40775</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H4" s="7">
-        <v>98</v>
-      </c>
-      <c r="I4" s="7">
-        <v>61410</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>217</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>158</v>
@@ -4515,13 +4554,13 @@
         <v>102184</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,34 +4569,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>74</v>
+      </c>
+      <c r="D5" s="7">
+        <v>47152</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H5" s="7">
         <v>84</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>54792</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H5" s="7">
-        <v>74</v>
-      </c>
-      <c r="I5" s="7">
-        <v>47152</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>158</v>
@@ -4566,13 +4605,13 @@
         <v>101943</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,34 +4620,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>38</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22549</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H6" s="7">
         <v>43</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>28597</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H6" s="7">
-        <v>38</v>
-      </c>
-      <c r="I6" s="7">
-        <v>22549</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>62</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>81</v>
@@ -4617,13 +4656,13 @@
         <v>51146</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,25 +4671,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>210</v>
+      </c>
+      <c r="D7" s="7">
+        <v>131111</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>187</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>124164</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>210</v>
-      </c>
-      <c r="I7" s="7">
-        <v>131111</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4685,34 +4724,34 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>125</v>
+      </c>
+      <c r="D8" s="7">
+        <v>78857</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H8" s="7">
         <v>146</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>100308</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H8" s="7">
-        <v>125</v>
-      </c>
-      <c r="I8" s="7">
-        <v>78857</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M8" s="7">
         <v>271</v>
@@ -4721,13 +4760,13 @@
         <v>179165</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,34 +4775,34 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>130</v>
+      </c>
+      <c r="D9" s="7">
+        <v>82718</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H9" s="7">
         <v>153</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>103734</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H9" s="7">
-        <v>130</v>
-      </c>
-      <c r="I9" s="7">
-        <v>82718</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>216</v>
+        <v>324</v>
       </c>
       <c r="M9" s="7">
         <v>283</v>
@@ -4772,13 +4811,13 @@
         <v>186452</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,34 +4826,34 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>77</v>
+      </c>
+      <c r="D10" s="7">
+        <v>48942</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H10" s="7">
         <v>81</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>54018</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H10" s="7">
-        <v>77</v>
-      </c>
-      <c r="I10" s="7">
-        <v>48942</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="M10" s="7">
         <v>158</v>
@@ -4823,13 +4862,13 @@
         <v>102961</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>325</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4838,25 +4877,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>332</v>
+      </c>
+      <c r="D11" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>380</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>258061</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>332</v>
-      </c>
-      <c r="I11" s="7">
-        <v>210517</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4891,34 +4930,34 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>98</v>
+      </c>
+      <c r="D12" s="7">
+        <v>66733</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H12" s="7">
         <v>95</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>68325</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H12" s="7">
-        <v>98</v>
-      </c>
-      <c r="I12" s="7">
-        <v>66733</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="M12" s="7">
         <v>193</v>
@@ -4927,13 +4966,13 @@
         <v>135059</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,34 +4981,34 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>110</v>
+      </c>
+      <c r="D13" s="7">
+        <v>78302</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="H13" s="7">
         <v>98</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>71286</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H13" s="7">
-        <v>110</v>
-      </c>
-      <c r="I13" s="7">
-        <v>78302</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>208</v>
@@ -4978,13 +5017,13 @@
         <v>149588</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,34 +5032,34 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>63</v>
+      </c>
+      <c r="D14" s="7">
+        <v>43140</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H14" s="7">
         <v>69</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>48283</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="H14" s="7">
-        <v>63</v>
-      </c>
-      <c r="I14" s="7">
-        <v>43140</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>344</v>
+        <v>36</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -5029,13 +5068,13 @@
         <v>91423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,25 +5083,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>271</v>
+      </c>
+      <c r="D15" s="7">
+        <v>188175</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>262</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>187894</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>271</v>
-      </c>
-      <c r="I15" s="7">
-        <v>188175</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5097,34 +5136,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>93</v>
+      </c>
+      <c r="D16" s="7">
+        <v>63250</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H16" s="7">
         <v>88</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>65820</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H16" s="7">
-        <v>93</v>
-      </c>
-      <c r="I16" s="7">
-        <v>63250</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
         <v>181</v>
@@ -5133,13 +5172,13 @@
         <v>129071</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,34 +5187,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>102</v>
+      </c>
+      <c r="D17" s="7">
+        <v>73821</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H17" s="7">
         <v>84</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>62179</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="H17" s="7">
-        <v>102</v>
-      </c>
-      <c r="I17" s="7">
-        <v>73821</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>186</v>
@@ -5184,13 +5223,13 @@
         <v>136000</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,34 +5238,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>50</v>
+      </c>
+      <c r="D18" s="7">
+        <v>35061</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H18" s="7">
         <v>63</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>46049</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="H18" s="7">
-        <v>50</v>
-      </c>
-      <c r="I18" s="7">
-        <v>35061</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="M18" s="7">
         <v>113</v>
@@ -5235,13 +5274,13 @@
         <v>81110</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>146</v>
+        <v>383</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,25 +5289,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>245</v>
+      </c>
+      <c r="D19" s="7">
+        <v>172133</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>235</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>174048</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>245</v>
-      </c>
-      <c r="I19" s="7">
-        <v>172133</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5303,34 +5342,34 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>414</v>
+      </c>
+      <c r="D20" s="7">
+        <v>270250</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H20" s="7">
         <v>389</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>275228</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H20" s="7">
-        <v>414</v>
-      </c>
-      <c r="I20" s="7">
-        <v>270250</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="M20" s="7">
         <v>803</v>
@@ -5339,13 +5378,13 @@
         <v>545478</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5354,34 +5393,34 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>416</v>
+      </c>
+      <c r="D21" s="7">
+        <v>281994</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H21" s="7">
         <v>419</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>291990</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H21" s="7">
-        <v>416</v>
-      </c>
-      <c r="I21" s="7">
-        <v>281994</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="M21" s="7">
         <v>835</v>
@@ -5390,13 +5429,13 @@
         <v>573984</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,34 +5444,34 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>228</v>
+      </c>
+      <c r="D22" s="7">
+        <v>149692</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H22" s="7">
         <v>256</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>176948</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="7">
-        <v>228</v>
-      </c>
-      <c r="I22" s="7">
-        <v>149692</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="M22" s="7">
         <v>484</v>
@@ -5441,13 +5480,13 @@
         <v>326640</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,25 +5495,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1058</v>
+      </c>
+      <c r="D23" s="7">
+        <v>701936</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>1064</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>744166</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1058</v>
-      </c>
-      <c r="I23" s="7">
-        <v>701936</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -5503,7 +5542,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5523,7 +5562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAD6E67-0A51-4124-8D9B-63F2030BA3F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B52BAB5-9E2F-40AE-BE9F-3078DD8C63B2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5540,7 +5579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5641,49 +5680,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>86</v>
+      </c>
+      <c r="D4" s="7">
+        <v>43518</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="H4" s="7">
         <v>90</v>
       </c>
-      <c r="D4" s="7">
-        <v>44114</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H4" s="7">
-        <v>86</v>
-      </c>
       <c r="I4" s="7">
-        <v>43605</v>
+        <v>46599</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="M4" s="7">
         <v>176</v>
       </c>
       <c r="N4" s="7">
-        <v>87719</v>
+        <v>90118</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,49 +5731,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8402</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="H5" s="7">
         <v>17</v>
       </c>
-      <c r="D5" s="7">
-        <v>9703</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="H5" s="7">
-        <v>14</v>
-      </c>
       <c r="I5" s="7">
-        <v>8255</v>
+        <v>9996</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>194</v>
+        <v>427</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
       </c>
       <c r="N5" s="7">
-        <v>17958</v>
+        <v>18398</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,46 +5785,46 @@
         <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>4686</v>
+        <v>5591</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>5508</v>
+        <v>4849</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>10194</v>
+        <v>10440</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,25 +5833,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="7">
-        <v>109</v>
-      </c>
       <c r="I7" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5827,7 +5866,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5847,49 +5886,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>206</v>
+      </c>
+      <c r="D8" s="7">
+        <v>124314</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H8" s="7">
         <v>207</v>
       </c>
-      <c r="D8" s="7">
-        <v>132970</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="H8" s="7">
-        <v>206</v>
-      </c>
       <c r="I8" s="7">
-        <v>124251</v>
+        <v>138062</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="M8" s="7">
         <v>413</v>
       </c>
       <c r="N8" s="7">
-        <v>257220</v>
+        <v>262378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,49 +5937,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7">
+        <v>14054</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H9" s="7">
         <v>43</v>
       </c>
-      <c r="D9" s="7">
-        <v>25803</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="H9" s="7">
-        <v>22</v>
-      </c>
       <c r="I9" s="7">
-        <v>14270</v>
+        <v>26904</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="M9" s="7">
         <v>65</v>
       </c>
       <c r="N9" s="7">
-        <v>40072</v>
+        <v>40959</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,49 +5988,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7">
+        <v>19513</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="H10" s="7">
         <v>26</v>
       </c>
-      <c r="D10" s="7">
-        <v>16527</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="H10" s="7">
-        <v>29</v>
-      </c>
       <c r="I10" s="7">
-        <v>19073</v>
+        <v>17587</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
       </c>
       <c r="N10" s="7">
-        <v>35599</v>
+        <v>37101</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,25 +6039,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>257</v>
+      </c>
+      <c r="D11" s="7">
+        <v>157882</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="7">
         <v>276</v>
       </c>
-      <c r="D11" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="7">
-        <v>257</v>
-      </c>
       <c r="I11" s="7">
-        <v>157593</v>
+        <v>182554</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -6033,7 +6072,7 @@
         <v>533</v>
       </c>
       <c r="N11" s="7">
-        <v>332892</v>
+        <v>340437</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -6053,49 +6092,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>185</v>
+      </c>
+      <c r="D12" s="7">
+        <v>135114</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="H12" s="7">
         <v>187</v>
       </c>
-      <c r="D12" s="7">
-        <v>151762</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="H12" s="7">
-        <v>185</v>
-      </c>
       <c r="I12" s="7">
-        <v>138594</v>
+        <v>157888</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
       <c r="M12" s="7">
         <v>372</v>
       </c>
       <c r="N12" s="7">
-        <v>290356</v>
+        <v>293001</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,49 +6143,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7">
+        <v>28524</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H13" s="7">
         <v>36</v>
       </c>
-      <c r="D13" s="7">
-        <v>32827</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="H13" s="7">
-        <v>35</v>
-      </c>
       <c r="I13" s="7">
-        <v>27991</v>
+        <v>36036</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>461</v>
+        <v>306</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
       </c>
       <c r="N13" s="7">
-        <v>60819</v>
+        <v>64561</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,49 +6194,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7">
+        <v>10250</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H14" s="7">
         <v>19</v>
       </c>
-      <c r="D14" s="7">
-        <v>16988</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="H14" s="7">
-        <v>14</v>
-      </c>
       <c r="I14" s="7">
-        <v>10360</v>
+        <v>17623</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
       <c r="M14" s="7">
         <v>33</v>
       </c>
       <c r="N14" s="7">
-        <v>27348</v>
+        <v>27873</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,25 +6245,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="7">
         <v>242</v>
       </c>
-      <c r="D15" s="7">
-        <v>201577</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="7">
-        <v>234</v>
-      </c>
       <c r="I15" s="7">
-        <v>176945</v>
+        <v>211547</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -6239,7 +6278,7 @@
         <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>378522</v>
+        <v>385434</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -6259,49 +6298,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>276</v>
+      </c>
+      <c r="D16" s="7">
+        <v>194100</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H16" s="7">
         <v>281</v>
       </c>
-      <c r="D16" s="7">
-        <v>242675</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="H16" s="7">
-        <v>276</v>
-      </c>
       <c r="I16" s="7">
-        <v>199660</v>
+        <v>257716</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="M16" s="7">
         <v>557</v>
       </c>
       <c r="N16" s="7">
-        <v>442335</v>
+        <v>451816</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,49 +6349,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>45</v>
+      </c>
+      <c r="D17" s="7">
+        <v>65643</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="H17" s="7">
         <v>35</v>
       </c>
-      <c r="D17" s="7">
-        <v>27466</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="H17" s="7">
-        <v>45</v>
-      </c>
       <c r="I17" s="7">
-        <v>44721</v>
+        <v>27432</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="M17" s="7">
         <v>80</v>
       </c>
       <c r="N17" s="7">
-        <v>72187</v>
+        <v>93075</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,49 +6400,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7">
+        <v>15715</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H18" s="7">
         <v>25</v>
       </c>
-      <c r="D18" s="7">
-        <v>18757</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="H18" s="7">
-        <v>21</v>
-      </c>
       <c r="I18" s="7">
-        <v>16252</v>
+        <v>19810</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="M18" s="7">
         <v>46</v>
       </c>
       <c r="N18" s="7">
-        <v>35009</v>
+        <v>35525</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,25 +6451,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>342</v>
+      </c>
+      <c r="D19" s="7">
+        <v>275458</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="7">
         <v>341</v>
       </c>
-      <c r="D19" s="7">
-        <v>288898</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="7">
-        <v>342</v>
-      </c>
       <c r="I19" s="7">
-        <v>260633</v>
+        <v>304958</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6445,7 +6484,7 @@
         <v>683</v>
       </c>
       <c r="N19" s="7">
-        <v>549531</v>
+        <v>580416</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6465,49 +6504,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>753</v>
+      </c>
+      <c r="D20" s="7">
+        <v>497046</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="H20" s="7">
         <v>765</v>
       </c>
-      <c r="D20" s="7">
-        <v>571520</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="H20" s="7">
-        <v>753</v>
-      </c>
       <c r="I20" s="7">
-        <v>506110</v>
+        <v>600265</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="M20" s="7">
         <v>1518</v>
       </c>
       <c r="N20" s="7">
-        <v>1077630</v>
+        <v>1097312</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6516,49 +6555,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
+        <v>116</v>
+      </c>
+      <c r="D21" s="7">
+        <v>116623</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="7">
         <v>131</v>
       </c>
-      <c r="D21" s="7">
-        <v>95799</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="H21" s="7">
-        <v>116</v>
-      </c>
       <c r="I21" s="7">
-        <v>95237</v>
+        <v>100369</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="M21" s="7">
         <v>247</v>
       </c>
       <c r="N21" s="7">
-        <v>191036</v>
+        <v>216992</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,49 +6606,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
+        <v>73</v>
+      </c>
+      <c r="D22" s="7">
+        <v>51069</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="H22" s="7">
         <v>79</v>
       </c>
-      <c r="D22" s="7">
-        <v>56957</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="H22" s="7">
-        <v>73</v>
-      </c>
       <c r="I22" s="7">
-        <v>51193</v>
+        <v>59869</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="M22" s="7">
         <v>152</v>
       </c>
       <c r="N22" s="7">
-        <v>108150</v>
+        <v>110938</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>528</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6618,25 +6657,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>942</v>
+      </c>
+      <c r="D23" s="7">
+        <v>664738</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="7">
         <v>975</v>
       </c>
-      <c r="D23" s="7">
-        <v>724276</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="7">
-        <v>942</v>
-      </c>
       <c r="I23" s="7">
-        <v>652540</v>
+        <v>760503</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6651,7 +6690,7 @@
         <v>1917</v>
       </c>
       <c r="N23" s="7">
-        <v>1376816</v>
+        <v>1425242</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6665,7 +6704,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
